--- a/Assets/Resources/Naninovel/Locale.xlsx
+++ b/Assets/Resources/Naninovel/Locale.xlsx
@@ -14,11 +14,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="BcwSGrxHF/Xqjczh2j+PBhzOa6qsBD7THkHEUJB+yqU="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="759">
   <si>
     <t>Template</t>
   </si>
@@ -35,6 +40,9 @@
     <t>Miko</t>
   </si>
   <si>
+    <t>Міко</t>
+  </si>
+  <si>
     <t>p: {0}</t>
   </si>
   <si>
@@ -47,48 +55,72 @@
     <t>Peggi</t>
   </si>
   <si>
+    <t>Пеггі</t>
+  </si>
+  <si>
     <t>CGGallery.Title: {0}</t>
   </si>
   <si>
     <t>CG GALLERY</t>
   </si>
   <si>
+    <t>ГАЛЕРЕЯ CG</t>
+  </si>
+  <si>
     <t>Confirmation.No: {0}</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>НІ</t>
+  </si>
+  <si>
     <t>Confirmation.Yes: {0}</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
+    <t>ТАК</t>
+  </si>
+  <si>
     <t>ControlPanel.Auto: {0}</t>
   </si>
   <si>
     <t>AUTO</t>
   </si>
   <si>
+    <t>АВТО</t>
+  </si>
+  <si>
     <t>ControlPanel.Hide: {0}</t>
   </si>
   <si>
     <t>HIDE</t>
   </si>
   <si>
+    <t>ПРИХОВАТИ</t>
+  </si>
+  <si>
     <t>ControlPanel.Load: {0}</t>
   </si>
   <si>
     <t>LOAD</t>
   </si>
   <si>
+    <t>ЗАВАНТАЖИТИ</t>
+  </si>
+  <si>
     <t>ControlPanel.Log: {0}</t>
   </si>
   <si>
     <t>LOG</t>
   </si>
   <si>
+    <t>ЛОГ</t>
+  </si>
+  <si>
     <t>ControlPanel.QuickLoad: {0}</t>
   </si>
   <si>
@@ -107,66 +139,99 @@
     <t>SAVE</t>
   </si>
   <si>
+    <t>ЗБЕРЕГТИ</t>
+  </si>
+  <si>
     <t>ControlPanel.Settings: {0}</t>
   </si>
   <si>
     <t>SETTINGS</t>
   </si>
   <si>
+    <t>НАЛАШТУВАННЯ</t>
+  </si>
+  <si>
     <t>ControlPanel.Skip: {0}</t>
   </si>
   <si>
     <t>SKIP</t>
   </si>
   <si>
+    <t>ПРОПУСТИТИ</t>
+  </si>
+  <si>
     <t>ControlPanel.Tips: {0}</t>
   </si>
   <si>
     <t>TIPS</t>
   </si>
   <si>
+    <t>ПОРАДИ</t>
+  </si>
+  <si>
     <t>ControlPanel.Title: {0}</t>
   </si>
   <si>
     <t>TITLE</t>
   </si>
   <si>
+    <t>НАЗВА</t>
+  </si>
+  <si>
     <t>ExternalScriptsBrowser.Info: {0}</t>
   </si>
   <si>
     <t>Select a script to play</t>
   </si>
   <si>
+    <t>Виберіть сценарій для відтворення</t>
+  </si>
+  <si>
     <t>ExternalScriptsBrowser.Title: {0}</t>
   </si>
   <si>
     <t>EXTERNAL SCRIPTS</t>
   </si>
   <si>
+    <t>ЗОВНІШНІ СЦЕНАРІЇ</t>
+  </si>
+  <si>
     <t>General.Close: {0}</t>
   </si>
   <si>
     <t>CLOSE</t>
   </si>
   <si>
+    <t>ЗАКРИТИ</t>
+  </si>
+  <si>
     <t>General.Return: {0}</t>
   </si>
   <si>
     <t>RETURN</t>
   </si>
   <si>
+    <t>ПОВЕРНУТИСЯ</t>
+  </si>
+  <si>
     <t>Naninovel.UI.ControlPanelTitleButton.ConfirmationMessage: {0}</t>
   </si>
   <si>
     <t>Are you sure you want to quit to the title screen?\nAny unsaved game progress will be lost.</t>
   </si>
   <si>
+    <t>Ви впевнені, що хочете вийти на титульний екран?\nУся незбережена гра буде втрачена.</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsFontDropdown.DefaultFontName: {0}</t>
   </si>
   <si>
     <t>Default</t>
   </si>
   <si>
+    <t>За замовчуванням</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsFontSizeDropdown.Default: {0}</t>
   </si>
   <si>
@@ -176,108 +241,162 @@
     <t>Extra Large</t>
   </si>
   <si>
+    <t>Надзвичайно великий</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsFontSizeDropdown.Large: {0}</t>
   </si>
   <si>
     <t>Large</t>
   </si>
   <si>
+    <t>Великий</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsFontSizeDropdown.Small: {0}</t>
   </si>
   <si>
     <t>Small</t>
   </si>
   <si>
+    <t>Малий</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption1: {0}</t>
   </si>
   <si>
     <t>Very Low</t>
   </si>
   <si>
+    <t>Дуже низький</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption2: {0}</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
+    <t>Низький</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption3: {0}</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
+    <t>Середній</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption4: {0}</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
+    <t>Високий</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption5: {0}</t>
   </si>
   <si>
     <t>Very High</t>
   </si>
   <si>
+    <t>Дуже високий</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption6: {0}</t>
   </si>
   <si>
     <t>Ultra</t>
   </si>
   <si>
+    <t>Ультра</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsScreenModeDropdown.ExclusiveFullScreen: {0}</t>
   </si>
   <si>
     <t>Full Screen</t>
   </si>
   <si>
+    <t>На весь екран</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsScreenModeDropdown.FullScreenWindow: {0}</t>
   </si>
   <si>
     <t>Full Screen Window</t>
   </si>
   <si>
+    <t>Повное екранне вікно</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsScreenModeDropdown.MaximizedWindow: {0}</t>
   </si>
   <si>
     <t>Maximized Window</t>
   </si>
   <si>
+    <t>Розгорнуте вікно</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsScreenModeDropdown.Windowed: {0}</t>
   </si>
   <si>
     <t>Windowed</t>
   </si>
   <si>
+    <t>У вікні</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsSkipModeDropdown.Everything: {0}</t>
   </si>
   <si>
     <t>Everything</t>
   </si>
   <si>
+    <t>Все</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameSettingsSkipModeDropdown.ReadOnly: {0}</t>
   </si>
   <si>
     <t>Read Only</t>
   </si>
   <si>
+    <t>Тільки для читання</t>
+  </si>
+  <si>
     <t>Naninovel.UI.GameStateSlot.EmptySlotLabel: {0}</t>
   </si>
   <si>
     <t>Empty</t>
   </si>
   <si>
+    <t>Порожньо</t>
+  </si>
+  <si>
     <t>Naninovel.UI.SaveLoadMenu.DeleteSaveSlotMessage: {0}</t>
   </si>
   <si>
     <t>Are you sure you want to delete save slot?</t>
   </si>
   <si>
+    <t>Ви впевнені, що хочете видалити слот збереження?</t>
+  </si>
+  <si>
     <t>Naninovel.UI.SaveLoadMenu.OverwriteSaveSlotMessage: {0}</t>
   </si>
   <si>
     <t>Are you sure you want to overwrite save slot?</t>
   </si>
   <si>
+    <t>Ви впевнені, що хочете перезаписати слот збереження?</t>
+  </si>
+  <si>
     <t>SaveLoadMenu.Tab.Load: {0}</t>
   </si>
   <si>
@@ -287,6 +406,9 @@
     <t>Q. LOAD</t>
   </si>
   <si>
+    <t>Q. ЗАВАНТАЖИТИ</t>
+  </si>
+  <si>
     <t>SaveLoadMenu.Tab.Save: {0}</t>
   </si>
   <si>
@@ -296,66 +418,99 @@
     <t>Auto delay:</t>
   </si>
   <si>
+    <t>Автоматична затримка:</t>
+  </si>
+  <si>
     <t>SettingsMenu.Font: {0}</t>
   </si>
   <si>
     <t>Font:</t>
   </si>
   <si>
+    <t>Шрифт:</t>
+  </si>
+  <si>
     <t>SettingsMenu.FontSize: {0}</t>
   </si>
   <si>
     <t>Font size:</t>
   </si>
   <si>
+    <t>Розмір шрифту:</t>
+  </si>
+  <si>
     <t>SettingsMenu.Graphics: {0}</t>
   </si>
   <si>
     <t>Graphics:</t>
   </si>
   <si>
+    <t>Графіка:</t>
+  </si>
+  <si>
     <t>SettingsMenu.Language: {0}</t>
   </si>
   <si>
     <t>Language:</t>
   </si>
   <si>
+    <t>Мова:</t>
+  </si>
+  <si>
     <t>SettingsMenu.MessageSpeed: {0}</t>
   </si>
   <si>
     <t>Message speed:</t>
   </si>
   <si>
+    <t>Швидкість передачі повідомлень:</t>
+  </si>
+  <si>
     <t>SettingsMenu.Preview: {0}</t>
   </si>
   <si>
     <t>Preview</t>
   </si>
   <si>
+    <t>Попередній перегляд</t>
+  </si>
+  <si>
     <t>SettingsMenu.PreviewText: {0}</t>
   </si>
   <si>
     <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc mollis vitae tellus a pharetra. Aenean vitae ipsum in est lobortis vulputate a blandit ipsum. Nullam in felis purus. </t>
   </si>
   <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc mollis vitae tellus a pharetra. Aenean vitae ipsum in est lobortis vulputate a blandit ipsum. Nullam in felis purus.</t>
+  </si>
+  <si>
     <t>SettingsMenu.Resolution: {0}</t>
   </si>
   <si>
     <t>Resolution:</t>
   </si>
   <si>
+    <t>Роздільна здатність:</t>
+  </si>
+  <si>
     <t>SettingsMenu.ScreenMode: {0}</t>
   </si>
   <si>
     <t>Screen mode:</t>
   </si>
   <si>
+    <t>Екранний режим:</t>
+  </si>
+  <si>
     <t>SettingsMenu.SkipMode: {0}</t>
   </si>
   <si>
     <t>Skip mode:</t>
   </si>
   <si>
+    <t>Пропустити:</t>
+  </si>
+  <si>
     <t>SettingsMenu.Tab.Basic: {0}</t>
   </si>
   <si>
@@ -368,67 +523,100 @@
     <t>SOUND</t>
   </si>
   <si>
+    <t>ЗВУК</t>
+  </si>
+  <si>
     <t>SettingsMenu.Tab.Text: {0}</t>
   </si>
   <si>
     <t>TEXT</t>
   </si>
   <si>
+    <t>ТЕКСТ</t>
+  </si>
+  <si>
     <t>SettingsMenu.VoiceLanguage: {0}</t>
   </si>
   <si>
     <t>Voice language:</t>
   </si>
   <si>
+    <t>Мова голосу:</t>
+  </si>
+  <si>
     <t>SettingsMenu.VolumeEffects: {0}</t>
   </si>
   <si>
     <t>Effects volume:</t>
   </si>
   <si>
+    <t>Гучність ефектів:</t>
+  </si>
+  <si>
     <t>SettingsMenu.VolumeMaster: {0}</t>
   </si>
   <si>
     <t>Master volume:</t>
   </si>
   <si>
+    <t>Основна гучність:</t>
+  </si>
+  <si>
     <t>SettingsMenu.VolumeMusic: {0}</t>
   </si>
   <si>
     <t>Music volume:</t>
   </si>
   <si>
+    <t>Гучність музики:</t>
+  </si>
+  <si>
     <t>SettingsMenu.VolumeVoice: {0}</t>
   </si>
   <si>
     <t>Voice volume:</t>
   </si>
   <si>
+    <t>Гучність голосу:</t>
+  </si>
+  <si>
     <t>TitleMenu.CGGallery: {0}</t>
   </si>
   <si>
+    <t>CG ГАЛЕРЕЯ</t>
+  </si>
+  <si>
     <t>TitleMenu.Continue: {0}</t>
   </si>
   <si>
     <t>CONTINUE</t>
   </si>
   <si>
+    <t>ПРОДОВЖИТИ</t>
+  </si>
+  <si>
     <t>TitleMenu.Exit: {0}</t>
   </si>
   <si>
     <t>EXIT</t>
   </si>
   <si>
+    <t>ВИХІД</t>
+  </si>
+  <si>
     <t>TitleMenu.ExternalScripts: {0}</t>
   </si>
   <si>
+    <t>ЗОВНІШНІ СКРИПТИ</t>
+  </si>
+  <si>
     <t>TitleMenu.NewGame: {0}</t>
   </si>
   <si>
     <t>NEW GAME</t>
   </si>
   <si>
-    <t>Нова гра</t>
+    <t>НОВА ГРА</t>
   </si>
   <si>
     <t>TitleMenu.Settings: {0}</t>
@@ -443,6 +631,9 @@
     <t>SUBMIT</t>
   </si>
   <si>
+    <t>ВІДПРАВИТИ</t>
+  </si>
+  <si>
     <t>af: {0}</t>
   </si>
   <si>
@@ -1842,10 +2033,12 @@
   </si>
   <si>
     <t xml:space="preserve">;Init
+@bgm MainTheme loop:true fade:0.5
 @set QuestStatus=0
 @set ItemGive=""
 @lock Map/Network
 @unlock Item/Data
+@printer NewTMProDialogue default:true
 ;Start game
 @input PlayerName summary:{0}
 </t>
@@ -1854,36 +2047,36 @@
     <t>"Choose your name."</t>
   </si>
   <si>
-    <t/>
+    <t>"Виберіть своє ім'я".</t>
   </si>
   <si>
     <t>@stop
-@goto Scene0.Scene
-;Init &amp; import packages 1h
-;Read documentation naninovel 2h
-;See examples 3h
-;Write naninovel scripts 2h
-;Test and update minigame scene 2h</t>
+@goto Scene0.Scene</t>
   </si>
   <si>
     <t># Map
-@hideAll
+@hideChars
+@hidePrinter
 @back background_map
-@choice handler:ButtonArea button:MapButtons/RedStreet pos:-630,-300 goto:Scene0
-@choice handler:ButtonArea button:MapButtons/BlueStreet pos:640,-300 goto:Scene1
-@choice handler:ButtonArea button:MapButtons/Network pos:0,450 goto:SceneSync
+@choice handler:ButtonArea button:MapButtons/RedStreet pos:-370,-50 goto:Scene0
+@choice handler:ButtonArea button:MapButtons/BlueStreet pos:260,-205 goto:Scene1
+@choice handler:ButtonArea button:MapButtons/Network pos:200,170 goto:SceneSync
 @stop</t>
   </si>
   <si>
     <t xml:space="preserve"># Scene
 @back background_scene_0
+@sfx Tech loop:true
 @if QuestStatus==0
     @char miko
     miko: {0}
 </t>
   </si>
   <si>
-    <t>Take your first job. It's here, over an angle.</t>
+    <t>Take your first job. It's close, on Blue Street.</t>
+  </si>
+  <si>
+    <t>Візьми свою першу роботу. Це недалеко, на Блу-стріт.</t>
   </si>
   <si>
     <t xml:space="preserve">    p: {0}
@@ -1893,62 +2086,16 @@
     <t>Ok.</t>
   </si>
   <si>
-    <t xml:space="preserve">    @set QuestStatus=1
+    <t>Гаразд.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @showUI QuestLogUI
+    @set QuestStatus=1
+    @quest summary:{1} location:blue_street
     @hide miko
 @elseIf QuestStatus==4
-    @char miko
-    miko: {0}
-</t>
-  </si>
-  <si>
-    <t>You are here!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    @char peggi
-    peggi: {0}
-</t>
-  </si>
-  <si>
-    <t>I too.</t>
-  </si>
-  <si>
-    <t>And who is are need this data?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    miko: {0}
-</t>
-  </si>
-  <si>
-    <t>Me!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    peggi: {0}
-</t>
-  </si>
-  <si>
-    <t>No! I need this data!</t>
-  </si>
-  <si>
-    <t>I give this item ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    @set QuestStatus=5
-    @choice {0} goto:.GiveItemMiko
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    @choice {0} goto:.GiveItemPeggi
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    @choice {0} goto:.GiveItemMe
-</t>
-  </si>
-  <si>
-    <t>Me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@elseIf QuestStatus==5
+    @goto .ReturnWithData
+@elseIf QuestStatus==5
     @char miko
     @if ItemGive=="miko"
         miko: {0}
@@ -1958,6 +2105,15 @@
     <t>Thank u very much.</t>
   </si>
   <si>
+    <t>Дуже вам дякую.</t>
+  </si>
+  <si>
+    <t>"Go to Blue Street."</t>
+  </si>
+  <si>
+    <t>"Йди на Блу-стріт".</t>
+  </si>
+  <si>
     <t xml:space="preserve">    @else
         miko: {0}
 </t>
@@ -1966,11 +2122,104 @@
     <t>Go out!</t>
   </si>
   <si>
+    <t>Виходьте!</t>
+  </si>
+  <si>
     <t xml:space="preserve">    @endIf
 @endIf
+@choice handler:ButtonArea button:MapButtons/Map pos:900,450 goto:.GoOut
 @hidePrinter
-@choice handler:ButtonArea button:MapButtons/Map pos:900,450 goto:MapScript.Map
 @stop
+# GoOut
+@stopSfx Tech
+@goto MapScript
+# ReturnWithData
+@char miko
+miko: {0}
+</t>
+  </si>
+  <si>
+    <t>You are here!</t>
+  </si>
+  <si>
+    <t>Ти тут!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@char peggi
+peggi: {0}
+</t>
+  </si>
+  <si>
+    <t>I too.</t>
+  </si>
+  <si>
+    <t>Я теж.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p: {0}
+</t>
+  </si>
+  <si>
+    <t>And who is are need this data?</t>
+  </si>
+  <si>
+    <t>А кому потрібні ці дані?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miko: {0}
+</t>
+  </si>
+  <si>
+    <t>Me!</t>
+  </si>
+  <si>
+    <t>Мені!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peggi: {0}
+</t>
+  </si>
+  <si>
+    <t>No! I need this data!</t>
+  </si>
+  <si>
+    <t>Ні! Ці дані потрібні мені!</t>
+  </si>
+  <si>
+    <t>I give this item ...</t>
+  </si>
+  <si>
+    <t>Віддаю цю річ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hideUI QuestLogUI
+@set QuestStatus=5
+@quest summary:"" location:""
+@choice {0} handler:ButtonList button:ItemButtons/ChoiceButton  goto:.GiveItemMiko
+</t>
+  </si>
+  <si>
+    <t>Міко.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@choice {0} handler:ButtonList button:ItemButtons/ChoiceButton goto:.GiveItemPeggi
+</t>
+  </si>
+  <si>
+    <t>Пеґґі.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@choice {0} handler:ButtonList button:ItemButtons/ChoiceButton  goto:.GiveItemMe
+</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>Мені.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@stop
 # GiveItemMiko
 p: {0}
 </t>
@@ -1979,11 +2228,13 @@
     <t>Miko!</t>
   </si>
   <si>
-    <t xml:space="preserve">peggi: {0}
-</t>
+    <t>Міко!</t>
   </si>
   <si>
     <t>Hm!</t>
+  </si>
+  <si>
+    <t>Хм!</t>
   </si>
   <si>
     <t xml:space="preserve">@hide peggi
@@ -1997,17 +2248,25 @@
     <t>Peggi!</t>
   </si>
   <si>
-    <t xml:space="preserve">miko: {0}
-</t>
+    <t>Пеґґі!</t>
   </si>
   <si>
     <t>Go out from my street!</t>
   </si>
   <si>
+    <t>Забирайся з моєї вулиці!</t>
+  </si>
+  <si>
     <t>Follow me.</t>
   </si>
   <si>
-    <t xml:space="preserve">@set ItemGive="peggi"
+    <t>Йди за мною.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hidePrinter
+@hide miko
+@set ItemGive="peggi"
+@stopSfx Tech
 @goto Scene1
 # GiveItemMe
 p: {0}
@@ -2017,15 +2276,28 @@
     <t>Me! Xaxaxaxa</t>
   </si>
   <si>
+    <t>За мною! Xaxaxaxaxa</t>
+  </si>
+  <si>
+    <t>Геть з моєї вулиці!</t>
+  </si>
+  <si>
     <t>I'l hate you.</t>
   </si>
   <si>
-    <t>@set ItemGive="me"
-@goto MapScript.Map</t>
+    <t>Я тебе зненавиджу.</t>
+  </si>
+  <si>
+    <t>@hideChars
+@hidePrinter
+@set ItemGive="me"
+@goto .GoOut</t>
   </si>
   <si>
     <t xml:space="preserve"># Scene
 @back background_scene_1
+@sfx Rain loop:true
+@spawn Rain
 @if QuestStatus==1
     @char peggi
     peggi: {0}
@@ -2035,6 +2307,9 @@
     <t>I have a job for you. You need play the game.</t>
   </si>
   <si>
+    <t>У мене є робота для тебе. Тобі потрібно зіграти в гру.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    @minigame level:0
     peggi: {0}
 </t>
@@ -2043,10 +2318,21 @@
     <t>Oh! You already played!</t>
   </si>
   <si>
-    <t>Now. Go to sync and take data.</t>
+    <t>О! Ти вже зіграв!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    peggi: {0}
+</t>
+  </si>
+  <si>
+    <t>Now. Go to Sync and take data.</t>
+  </si>
+  <si>
+    <t>Давай. Зайди в "Синхронізацію" і візьми дані.</t>
   </si>
   <si>
     <t xml:space="preserve">    @set QuestStatus=2
+    @quest summary:{1} location:sync
     @unlock Map/Network
     @hide peggi
 @elseIf QuestStatus==3
@@ -2054,10 +2340,20 @@
 </t>
   </si>
   <si>
-    <t>Here's no one. I need go to red street.</t>
+    <t>Here's no one. I need go to Red street.</t>
+  </si>
+  <si>
+    <t>Тут нікого немає. Мені треба на Червону вулицю.</t>
+  </si>
+  <si>
+    <t>"Give data from Sync."</t>
+  </si>
+  <si>
+    <t>"Передати дані з центру."</t>
   </si>
   <si>
     <t xml:space="preserve">    @set QuestStatus=4
+    @quest summary:{1} location:red_street
 @elseIf QuestStatus==5
     @char peggi
     @if ItemGive=="peggi"
@@ -2065,6 +2361,15 @@
 </t>
   </si>
   <si>
+    <t>Дуже дякую.</t>
+  </si>
+  <si>
+    <t>"Go to Red Street."</t>
+  </si>
+  <si>
+    <t>"Їдьте на Червону вулицю."</t>
+  </si>
+  <si>
     <t xml:space="preserve">    @else
         peggi: {0}
 </t>
@@ -2073,30 +2378,55 @@
     <t>I hate you!</t>
   </si>
   <si>
+    <t>Ненавиджу тебе!</t>
+  </si>
+  <si>
     <t xml:space="preserve">    @endIf
 @endIf
+@choice handler:ButtonArea button:MapButtons/Map pos:900,450 goto:.GoOut
 @hidePrinter
-@choice handler:ButtonArea button:MapButtons/Map pos:900,450 goto:MapScript
-@stop</t>
-  </si>
-  <si>
-    <t># Scene
+@stop
+# GoOut
+@stopSfx Rain
+@despawn Rain
+@goto MapScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Scene
 @back background_network
 @choice handler:ButtonArea button:ItemButtons/Data pos:0,450 goto:.TakeItem
 @choice handler:ButtonArea button:MapButtons/Map pos:900,450 goto:MapScript
 @stop
 # TakeItem
-@set QuestStatus=3
+p: {0}
+</t>
+  </si>
+  <si>
+    <t>That she's data. Intresting. But! I need return this to her.</t>
+  </si>
+  <si>
+    <t>Що вона - дані. Цікаво. Але! Я повинен повернути їй це.</t>
+  </si>
+  <si>
+    <t>@set QuestStatus=3
+@quest summary:{0} location:blue_street
 @lock Item/Data
 @lock Map/Network
+@hidePrinter
 @goto .Scene</t>
+  </si>
+  <si>
+    <t>"Go back to Blue Street."</t>
+  </si>
+  <si>
+    <t>"Повертайся на Блу-стріт."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2108,17 +2438,27 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2127,13 +2467,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2387,7 +2733,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2399,29 +2745,29 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3416,7 +3762,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col customWidth="1" min="1" max="3" width="31.63"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3432,761 +3779,761 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>113</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>116</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>119</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>126</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>91</v>
+        <v>130</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>101</v>
+        <v>145</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>148</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>105</v>
+        <v>151</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>154</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>109</v>
+        <v>157</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>160</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>163</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>115</v>
+        <v>165</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>119</v>
+        <v>171</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>121</v>
+        <v>174</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>123</v>
+        <v>177</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>125</v>
+        <v>180</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>127</v>
+        <v>183</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>130</v>
+        <v>188</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>132</v>
+        <v>191</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>136</v>
+        <v>196</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>140</v>
+        <v>201</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
@@ -5141,2571 +5488,2571 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>204</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>206</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>208</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>148</v>
+        <v>210</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>212</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>216</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>218</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>220</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>160</v>
+        <v>222</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>162</v>
+        <v>224</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>164</v>
+        <v>226</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>166</v>
+        <v>228</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>168</v>
+        <v>230</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>170</v>
+        <v>232</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>172</v>
+        <v>234</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>174</v>
+        <v>236</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>176</v>
+        <v>238</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>178</v>
+        <v>240</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>180</v>
+        <v>242</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>182</v>
+        <v>244</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>184</v>
+        <v>246</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>186</v>
+        <v>248</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>188</v>
+        <v>250</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>190</v>
+        <v>252</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>192</v>
+        <v>254</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>194</v>
+        <v>256</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>196</v>
+        <v>258</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>198</v>
+        <v>260</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>200</v>
+        <v>262</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>202</v>
+        <v>264</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>204</v>
+        <v>266</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>206</v>
+        <v>268</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>208</v>
+        <v>270</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>210</v>
+        <v>272</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>212</v>
+        <v>274</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>214</v>
+        <v>276</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>216</v>
+        <v>278</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>218</v>
+        <v>280</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>220</v>
+        <v>282</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>222</v>
+        <v>284</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>224</v>
+        <v>286</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>226</v>
+        <v>288</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>228</v>
+        <v>290</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>230</v>
+        <v>292</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>234</v>
+        <v>296</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>236</v>
+        <v>298</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>238</v>
+        <v>300</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>240</v>
+        <v>302</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>242</v>
+        <v>304</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>244</v>
+        <v>306</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>246</v>
+        <v>308</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>248</v>
+        <v>310</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>250</v>
+        <v>312</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>252</v>
+        <v>314</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>254</v>
+        <v>316</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>256</v>
+        <v>318</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>258</v>
+        <v>320</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>260</v>
+        <v>322</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>262</v>
+        <v>324</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>264</v>
+        <v>326</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>266</v>
+        <v>328</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>268</v>
+        <v>330</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>270</v>
+        <v>332</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>272</v>
+        <v>334</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>274</v>
+        <v>336</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>276</v>
+        <v>338</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>278</v>
+        <v>340</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>280</v>
+        <v>342</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>282</v>
+        <v>344</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>283</v>
+        <v>345</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>284</v>
+        <v>346</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>285</v>
+        <v>347</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>286</v>
+        <v>348</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>288</v>
+        <v>350</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>290</v>
+        <v>352</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>292</v>
+        <v>354</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>294</v>
+        <v>356</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>296</v>
+        <v>358</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>298</v>
+        <v>360</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>300</v>
+        <v>362</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>302</v>
+        <v>364</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>304</v>
+        <v>366</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>306</v>
+        <v>368</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>307</v>
+        <v>369</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>308</v>
+        <v>370</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>310</v>
+        <v>372</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>311</v>
+        <v>373</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>312</v>
+        <v>374</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>314</v>
+        <v>376</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>316</v>
+        <v>378</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>318</v>
+        <v>380</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>319</v>
+        <v>381</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>320</v>
+        <v>382</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>322</v>
+        <v>384</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>324</v>
+        <v>386</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>326</v>
+        <v>388</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>328</v>
+        <v>390</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>330</v>
+        <v>392</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>332</v>
+        <v>394</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>334</v>
+        <v>396</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>335</v>
+        <v>397</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>336</v>
+        <v>398</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>337</v>
+        <v>399</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>338</v>
+        <v>400</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>340</v>
+        <v>402</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>342</v>
+        <v>404</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>344</v>
+        <v>406</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>345</v>
+        <v>407</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>346</v>
+        <v>408</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>347</v>
+        <v>409</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>348</v>
+        <v>410</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>350</v>
+        <v>412</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>352</v>
+        <v>414</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>354</v>
+        <v>416</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>356</v>
+        <v>418</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>358</v>
+        <v>420</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>360</v>
+        <v>422</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>362</v>
+        <v>424</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>364</v>
+        <v>426</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>366</v>
+        <v>428</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>368</v>
+        <v>430</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>370</v>
+        <v>432</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>371</v>
+        <v>433</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>372</v>
+        <v>434</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>374</v>
+        <v>436</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>376</v>
+        <v>438</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>378</v>
+        <v>440</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>380</v>
+        <v>442</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>382</v>
+        <v>444</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>384</v>
+        <v>446</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>386</v>
+        <v>448</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>388</v>
+        <v>450</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>390</v>
+        <v>452</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>392</v>
+        <v>454</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>394</v>
+        <v>456</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>396</v>
+        <v>458</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>398</v>
+        <v>460</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>400</v>
+        <v>462</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>402</v>
+        <v>464</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>404</v>
+        <v>466</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>406</v>
+        <v>468</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>408</v>
+        <v>470</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>410</v>
+        <v>472</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>412</v>
+        <v>474</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>414</v>
+        <v>476</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>416</v>
+        <v>478</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>418</v>
+        <v>480</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>420</v>
+        <v>482</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>422</v>
+        <v>484</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>424</v>
+        <v>486</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>426</v>
+        <v>488</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>428</v>
+        <v>490</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>430</v>
+        <v>492</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>432</v>
+        <v>494</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>434</v>
+        <v>496</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>436</v>
+        <v>498</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>438</v>
+        <v>500</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>440</v>
+        <v>502</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>442</v>
+        <v>504</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>444</v>
+        <v>506</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>446</v>
+        <v>508</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>447</v>
+        <v>509</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>448</v>
+        <v>510</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>450</v>
+        <v>512</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>452</v>
+        <v>514</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>454</v>
+        <v>516</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>456</v>
+        <v>518</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>457</v>
+        <v>519</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>458</v>
+        <v>520</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>460</v>
+        <v>522</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>462</v>
+        <v>524</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>464</v>
+        <v>526</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>466</v>
+        <v>528</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>468</v>
+        <v>530</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>470</v>
+        <v>532</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>472</v>
+        <v>534</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>474</v>
+        <v>536</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>476</v>
+        <v>538</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>478</v>
+        <v>540</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>480</v>
+        <v>542</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>482</v>
+        <v>544</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>484</v>
+        <v>546</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>486</v>
+        <v>548</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>488</v>
+        <v>550</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>490</v>
+        <v>552</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>492</v>
+        <v>554</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>494</v>
+        <v>556</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>496</v>
+        <v>558</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>498</v>
+        <v>560</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>500</v>
+        <v>562</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>502</v>
+        <v>564</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>504</v>
+        <v>566</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>506</v>
+        <v>568</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>508</v>
+        <v>570</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>510</v>
+        <v>572</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>512</v>
+        <v>574</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>514</v>
+        <v>576</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>516</v>
+        <v>578</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>518</v>
+        <v>580</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>520</v>
+        <v>582</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>522</v>
+        <v>584</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>524</v>
+        <v>586</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>526</v>
+        <v>588</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>528</v>
+        <v>590</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>530</v>
+        <v>592</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>532</v>
+        <v>594</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>534</v>
+        <v>596</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>536</v>
+        <v>598</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>538</v>
+        <v>600</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>540</v>
+        <v>602</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>542</v>
+        <v>604</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>544</v>
+        <v>606</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>546</v>
+        <v>608</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>548</v>
+        <v>610</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>550</v>
+        <v>612</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>552</v>
+        <v>614</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>554</v>
+        <v>616</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>556</v>
+        <v>618</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>558</v>
+        <v>620</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>560</v>
+        <v>622</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>562</v>
+        <v>624</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>564</v>
+        <v>626</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>566</v>
+        <v>628</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>568</v>
+        <v>630</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>570</v>
+        <v>632</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>572</v>
+        <v>634</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>574</v>
+        <v>636</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>576</v>
+        <v>638</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>578</v>
+        <v>640</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>580</v>
+        <v>642</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>582</v>
+        <v>644</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>584</v>
+        <v>646</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>586</v>
+        <v>648</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>587</v>
+        <v>649</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>588</v>
+        <v>650</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>589</v>
+        <v>651</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>590</v>
+        <v>652</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>592</v>
+        <v>654</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>593</v>
+        <v>655</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>594</v>
+        <v>656</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>596</v>
+        <v>658</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>597</v>
+        <v>659</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>598</v>
+        <v>660</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>599</v>
+        <v>661</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>600</v>
+        <v>662</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>601</v>
+        <v>663</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>602</v>
+        <v>664</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>603</v>
+        <v>665</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>604</v>
+        <v>666</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>606</v>
+        <v>668</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1"/>
@@ -8485,32 +8832,35 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>608</v>
+      <c r="A2" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>609</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>610</v>
+      <c r="A3" s="1" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9504,15 +9854,18 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>611</v>
+      <c r="A2" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -10506,255 +10859,267 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="66.88"/>
+    <col customWidth="1" min="2" max="6" width="12.63"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>613</v>
+      <c r="A2" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>609</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>615</v>
+      <c r="A3" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>617</v>
+        <v>680</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>619</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>620</v>
+      <c r="A6" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>686</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>622</v>
+      <c r="A7" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>624</v>
+      <c r="A8" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>609</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>625</v>
+      <c r="A9" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>609</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>609</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>633</v>
+      <c r="A14" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>609</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>635</v>
+      <c r="A15" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>609</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>637</v>
+      <c r="A16" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>609</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>639</v>
+      <c r="A17" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>609</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>641</v>
+      <c r="A18" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>609</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>642</v>
+      <c r="A19" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>609</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>644</v>
+      <c r="A20" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>641</v>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>609</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>645</v>
+      <c r="A22" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>609</v>
+        <v>727</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1"/>
+      <c r="A23" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" ht="55.5" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
@@ -11731,6 +12096,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11742,102 +12108,135 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="39.63"/>
+    <col customWidth="1" min="2" max="2" width="28.0"/>
+    <col customWidth="1" min="3" max="3" width="40.63"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>648</v>
+      <c r="A2" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>732</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>609</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>615</v>
+      <c r="A3" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>650</v>
+      <c r="A4" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>735</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>609</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>651</v>
+      <c r="A5" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>609</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>653</v>
+      <c r="A6" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>631</v>
+        <v>740</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>741</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>609</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>656</v>
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>609</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
+        <v>745</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -12816,6 +13215,8 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12827,15 +13228,43 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="67.88"/>
+    <col customWidth="1" min="2" max="2" width="32.88"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>658</v>
+      <c r="A2" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
